--- a/sites/URS_Certifications 03.02.26.xlsx
+++ b/sites/URS_Certifications 03.02.26.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C437ECB8-81C0-4261-9860-98A48A73A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0575D24-952F-407A-8326-0CB274D5A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 03.02.26" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6849" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6850" uniqueCount="795">
   <si>
     <t>Название компании</t>
   </si>
@@ -2415,7 +2415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3269,14 +3269,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="H403" sqref="H403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12583,6 +12591,9 @@
       <c r="E405" t="s">
         <v>19</v>
       </c>
+      <c r="F405" t="s">
+        <v>11</v>
+      </c>
       <c r="G405" s="1">
         <v>47147</v>
       </c>
